--- a/target/classes/AssignmentData.xlsx
+++ b/target/classes/AssignmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TGDD\assignmentoptimization\AssignmentOptimization\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Java\Code-eclipse-2012-6\WorkerAssignment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3D893-B3A9-47DF-A4B9-64AE6B7DB166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E5261-2D34-4512-804C-C1CBB9668BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D517521-5F5F-4123-934E-362A385630DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D517521-5F5F-4123-934E-362A385630DB}"/>
   </bookViews>
   <sheets>
     <sheet name="6581" sheetId="7" r:id="rId1"/>
@@ -405,7 +405,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C8E05-F91A-48FC-A9B9-1903BC2575F8}">
   <dimension ref="A1:R594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
